--- a/wwwroot/file/component.xlsx
+++ b/wwwroot/file/component.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimirgubin/web-developer/SUPPLY/wwwroot/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC8293-1D84-2341-8CB3-D4FA032438E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442C534-0974-E44C-8F8F-D7D34C798654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6360" yWindow="3900" windowWidth="28240" windowHeight="17240" xr2:uid="{7D18DC21-1FE5-9948-AEBA-7791236CAC60}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Выключатель дифференциального тока УЗО 03-6кА-2P-063А-030-A</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>411500 </t>
+  </si>
+  <si>
+    <t>jsdfgkhwdgfkwdjfhkwd awkfhjg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sa,jdhfg ljhqwdgf wdf kqwdg </t>
+  </si>
+  <si>
+    <t>er</t>
+  </si>
+  <si>
+    <t>iШафран ботк</t>
+  </si>
+  <si>
+    <t>уц</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -419,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE4E5956-19C6-7648-9937-9F2F1FCCC07B}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -476,6 +494,39 @@
         <v>10</v>
       </c>
     </row>
+    <row r="5" spans="1:3" ht="18">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>745757</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/wwwroot/file/component.xlsx
+++ b/wwwroot/file/component.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimirgubin/web-developer/SUPPLY/wwwroot/file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vladimirgubin/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0442C534-0974-E44C-8F8F-D7D34C798654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F4340D-B278-AA41-B608-7B3A54638231}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6360" yWindow="3900" windowWidth="28240" windowHeight="17240" xr2:uid="{7D18DC21-1FE5-9948-AEBA-7791236CAC60}"/>
+    <workbookView xWindow="4280" yWindow="1160" windowWidth="46920" windowHeight="26300" xr2:uid="{7D18DC21-1FE5-9948-AEBA-7791236CAC60}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
   <si>
     <t>Выключатель дифференциального тока УЗО 03-6кА-2P-063А-030-A</t>
   </si>
@@ -61,24 +61,6 @@
   </si>
   <si>
     <t>411500 </t>
-  </si>
-  <si>
-    <t>jsdfgkhwdgfkwdjfhkwd awkfhjg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sa,jdhfg ljhqwdgf wdf kqwdg </t>
-  </si>
-  <si>
-    <t>er</t>
-  </si>
-  <si>
-    <t>iШафран ботк</t>
-  </si>
-  <si>
-    <t>уц</t>
-  </si>
-  <si>
-    <t>a</t>
   </si>
 </sst>
 </file>
@@ -440,7 +422,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -496,35 +478,35 @@
     </row>
     <row r="5" spans="1:3" ht="18">
       <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>745757</v>
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>58</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
